--- a/steamchart_manual numbers.xlsx
+++ b/steamchart_manual numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhear\Desktop\intern\CostSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6B8BC0-6965-427D-BA05-9CA962E2EB60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE57420A-5A59-4422-8E08-CA6B1D9F20EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23565" yWindow="3150" windowWidth="18705" windowHeight="18045" xr2:uid="{E97F94AB-0E29-4667-A63F-07F1210A2021}"/>
+    <workbookView xWindow="21570" yWindow="2400" windowWidth="18705" windowHeight="18045" xr2:uid="{E97F94AB-0E29-4667-A63F-07F1210A2021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Counter-Strike: Global Offensive</t>
   </si>
@@ -129,6 +129,13 @@
   </si>
   <si>
     <t>PLAYERUNKNOWN'S BATTLEGROUNDS</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Average Players
+(Last 90 Days)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +159,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFAAAAAA"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -178,20 +184,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,380 +514,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EEEA4-A1F4-4E68-A5EE-31128964F733}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>379569</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <f>C2/C33</f>
         <v>0.20461278880467479</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>304536</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <f>C3/$C$33</f>
         <v>0.16416504048386574</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>183353</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <f t="shared" ref="D4:D31" si="0">C4/$C$33</f>
         <v>9.8839390639655855E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>122892</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>6.6246913846452413E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="7">
+        <f>SUM(D2,D3,D5,D4,D12)</f>
+        <v>0.55676096730024904</v>
+      </c>
+      <c r="H5" s="7">
+        <f>SUM(D14,D13,D25,D26)</f>
+        <v>6.0702079717098102E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <f>SUM(D11,D21,D30)</f>
+        <v>4.5583970329800647E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <f>SUM(D6,D8,D9,D10)</f>
+        <v>0.14296356991148534</v>
+      </c>
+      <c r="K5" s="7">
+        <f>SUM(D7,D18,D29)</f>
+        <v>6.181579032484124E-2</v>
+      </c>
+      <c r="L5" s="7">
+        <f>SUM(D15,D27,D28,D31)</f>
+        <v>4.4126874602438734E-2</v>
+      </c>
+      <c r="M5" s="7">
+        <f>SUM(D16,D17,D20,D22,D23,D24)</f>
+        <v>7.4719955149698675E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>92447</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>4.9835045766713743E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>72341</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>3.8996582320787468E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>70773</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>3.8151326641725873E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>56371</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>3.0387696354834882E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>45615</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>2.4589501148210839E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>43722</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>2.356904897954783E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>42475</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>2.2896833525600249E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>41539</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>2.2392267635548177E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>34756</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>1.8735782131036192E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>30873</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>1.6642588379890678E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>28214</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>1.5209211561890182E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>27359</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>1.4748310027707998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>25458</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <f t="shared" si="0"/>
         <v>1.3723545330070187E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>24722</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <f t="shared" si="0"/>
         <v>1.3326792664388213E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>24711</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <f t="shared" si="0"/>
         <v>1.3320862937047859E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>24159</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <f t="shared" si="0"/>
         <v>1.3023298437786379E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>20610</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <f t="shared" si="0"/>
         <v>1.1110152771338932E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>19342</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <f t="shared" si="0"/>
         <v>1.042661692883249E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>18374</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <f t="shared" si="0"/>
         <v>9.9048009228812003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>18341</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
         <f t="shared" si="0"/>
         <v>9.8870117408601348E-3</v>
       </c>
@@ -892,10 +933,10 @@
       <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>17970</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <f t="shared" si="0"/>
         <v>9.6870182096535969E-3</v>
       </c>
@@ -907,10 +948,10 @@
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>17272</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <f t="shared" si="0"/>
         <v>9.3107500566019432E-3</v>
       </c>
@@ -922,10 +963,10 @@
       <c r="B28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>17208</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
         <f t="shared" si="0"/>
         <v>9.2762498248035105E-3</v>
       </c>
@@ -937,10 +978,10 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>16873</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
         <f t="shared" si="0"/>
         <v>9.0956626739835903E-3</v>
       </c>
@@ -952,10 +993,10 @@
       <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>16680</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
         <f t="shared" si="0"/>
         <v>8.9916229124664439E-3</v>
       </c>
@@ -967,10 +1008,10 @@
       <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>16505</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <f t="shared" si="0"/>
         <v>8.8972863411426045E-3</v>
       </c>

--- a/steamchart_manual numbers.xlsx
+++ b/steamchart_manual numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhear\Desktop\intern\CostSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE57420A-5A59-4422-8E08-CA6B1D9F20EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE1D116-63DA-44FC-8639-E5F8219EEF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21570" yWindow="2400" windowWidth="18705" windowHeight="18045" xr2:uid="{E97F94AB-0E29-4667-A63F-07F1210A2021}"/>
+    <workbookView xWindow="20700" yWindow="1680" windowWidth="18705" windowHeight="18045" xr2:uid="{E97F94AB-0E29-4667-A63F-07F1210A2021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Counter-Strike: Global Offensive</t>
   </si>
@@ -136,13 +136,68 @@
   <si>
     <t>Average Players
 (Last 90 Days)</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Recommended
+Space (GB)</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Popularity</t>
+  </si>
+  <si>
+    <t>eSports</t>
+  </si>
+  <si>
+    <t>MMORPG</t>
+  </si>
+  <si>
+    <t>Survival</t>
+  </si>
+  <si>
+    <t>Co-Op</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>RPG/Strategy</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>"Final Fantasy XIV", "Destiny 2", "Black Desert", "VRChat"</t>
+  </si>
+  <si>
+    <t>"Dota_2", "Counter_Strike: Global_Offensive", "Apex_Legends", "PLAYERUNKNOWN'S_BATTLEGROUNDS", "Tom Clancy's_Rainbow Six Siege"</t>
+  </si>
+  <si>
+    <t>"ARK: Survival Evolved" , "Unturned", "Don't Starve Together"</t>
+  </si>
+  <si>
+    <t>"Grand Theft Auto V", "Rust", "Warframe" , "Dead by Daylight"</t>
+  </si>
+  <si>
+    <t>"Team Fortress 2", "PAYDAY 2", "Left 4 Dead 2"</t>
+  </si>
+  <si>
+    <t>"Sid Meier's Civilization VI", "Hearts of Iron IV", "Monster Hunter Stories 2: Wings of Ruin", "Monster Hunter: World"</t>
+  </si>
+  <si>
+    <t>"Football Manager 2021", "Terraria", "Stardew Valley", "Rocket League", "Garry's Mod", "War Thunder"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +214,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -184,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -199,6 +259,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EEEA4-A1F4-4E68-A5EE-31128964F733}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,9 +592,10 @@
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>32</v>
       </c>
@@ -537,8 +605,11 @@
       <c r="D1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -552,8 +623,11 @@
         <f>C2/C33</f>
         <v>0.20461278880467479</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -567,8 +641,11 @@
         <f>C3/$C$33</f>
         <v>0.16416504048386574</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -582,8 +659,11 @@
         <f t="shared" ref="D4:D31" si="0">C4/$C$33</f>
         <v>9.8839390639655855E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -597,36 +677,11 @@
         <f t="shared" si="0"/>
         <v>6.6246913846452413E-2</v>
       </c>
-      <c r="G5" s="7">
-        <f>SUM(D2,D3,D5,D4,D12)</f>
-        <v>0.55676096730024904</v>
-      </c>
-      <c r="H5" s="7">
-        <f>SUM(D14,D13,D25,D26)</f>
-        <v>6.0702079717098102E-2</v>
-      </c>
-      <c r="I5" s="7">
-        <f>SUM(D11,D21,D30)</f>
-        <v>4.5583970329800647E-2</v>
-      </c>
-      <c r="J5" s="7">
-        <f>SUM(D6,D8,D9,D10)</f>
-        <v>0.14296356991148534</v>
-      </c>
-      <c r="K5" s="7">
-        <f>SUM(D7,D18,D29)</f>
-        <v>6.181579032484124E-2</v>
-      </c>
-      <c r="L5" s="7">
-        <f>SUM(D15,D27,D28,D31)</f>
-        <v>4.4126874602438734E-2</v>
-      </c>
-      <c r="M5" s="7">
-        <f>SUM(D16,D17,D20,D22,D23,D24)</f>
-        <v>7.4719955149698675E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -640,8 +695,11 @@
         <f t="shared" si="0"/>
         <v>4.9835045766713743E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -655,8 +713,11 @@
         <f t="shared" si="0"/>
         <v>3.8996582320787468E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -670,8 +731,11 @@
         <f t="shared" si="0"/>
         <v>3.8151326641725873E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -685,8 +749,11 @@
         <f t="shared" si="0"/>
         <v>3.0387696354834882E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -700,8 +767,11 @@
         <f t="shared" si="0"/>
         <v>2.4589501148210839E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -715,8 +785,11 @@
         <f t="shared" si="0"/>
         <v>2.356904897954783E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -730,8 +803,11 @@
         <f t="shared" si="0"/>
         <v>2.2896833525600249E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -745,8 +821,11 @@
         <f t="shared" si="0"/>
         <v>2.2392267635548177E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -760,8 +839,11 @@
         <f t="shared" si="0"/>
         <v>1.8735782131036192E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -775,8 +857,11 @@
         <f t="shared" si="0"/>
         <v>1.6642588379890678E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -790,8 +875,11 @@
         <f t="shared" si="0"/>
         <v>1.5209211561890182E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -805,8 +893,11 @@
         <f t="shared" si="0"/>
         <v>1.4748310027707998E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -820,8 +911,11 @@
         <f t="shared" si="0"/>
         <v>1.3723545330070187E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -835,8 +929,11 @@
         <f t="shared" si="0"/>
         <v>1.3326792664388213E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -850,8 +947,11 @@
         <f t="shared" si="0"/>
         <v>1.3320862937047859E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -865,8 +965,11 @@
         <f t="shared" si="0"/>
         <v>1.3023298437786379E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -880,8 +983,11 @@
         <f t="shared" si="0"/>
         <v>1.1110152771338932E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -895,8 +1001,11 @@
         <f t="shared" si="0"/>
         <v>1.042661692883249E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -910,8 +1019,11 @@
         <f t="shared" si="0"/>
         <v>9.9048009228812003E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -925,8 +1037,11 @@
         <f t="shared" si="0"/>
         <v>9.8870117408601348E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -940,8 +1055,11 @@
         <f t="shared" si="0"/>
         <v>9.6870182096535969E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -955,8 +1073,11 @@
         <f t="shared" si="0"/>
         <v>9.3107500566019432E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -970,8 +1091,11 @@
         <f t="shared" si="0"/>
         <v>9.2762498248035105E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -985,8 +1109,11 @@
         <f t="shared" si="0"/>
         <v>9.0956626739835903E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1000,8 +1127,11 @@
         <f t="shared" si="0"/>
         <v>8.9916229124664439E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1015,8 +1145,11 @@
         <f t="shared" si="0"/>
         <v>8.8972863411426045E-3</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
@@ -1024,6 +1157,135 @@
         <f>SUM(C2:C31)</f>
         <v>1855060</v>
       </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="7">
+        <f>SUM(D2,D3,D5,D4,D12)</f>
+        <v>0.55676096730024904</v>
+      </c>
+      <c r="E37" s="8">
+        <f>SUM(E2,E3,E5,E4,E12)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="7">
+        <f>SUM(D14,D13,D25,D26)</f>
+        <v>6.0702079717098102E-2</v>
+      </c>
+      <c r="E38" s="8">
+        <f>SUM(E14,E13,E25,E26)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="7">
+        <f>SUM(D11,D21,D30)</f>
+        <v>4.5583970329800647E-2</v>
+      </c>
+      <c r="E39" s="8">
+        <f>SUM(E11,E21,E30)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="7">
+        <f>SUM(D6,D8,D9,D10)</f>
+        <v>0.14296356991148534</v>
+      </c>
+      <c r="E40" s="8">
+        <f>SUM(E6,E8,E9,E10)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="7">
+        <f>SUM(D7,D18,D29)</f>
+        <v>6.181579032484124E-2</v>
+      </c>
+      <c r="E41" s="8">
+        <f>SUM(E7,E18,E29)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="114" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="7">
+        <f>SUM(D15,D27,D28,D31)</f>
+        <v>4.4126874602438734E-2</v>
+      </c>
+      <c r="E42" s="8">
+        <f>SUM(E15,E27,E28,E31)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="7">
+        <f>SUM(D16,D17,D20,D22,D23,D24)</f>
+        <v>7.4719955149698675E-2</v>
+      </c>
+      <c r="E43" s="8">
+        <f>SUM(E16,E17,E20,E22,E23,E24)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/steamchart_manual numbers.xlsx
+++ b/steamchart_manual numbers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhear\Desktop\intern\CostSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE1D116-63DA-44FC-8639-E5F8219EEF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52244B40-E8B4-48A1-AAF1-5A3B42774277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="1680" windowWidth="18705" windowHeight="18045" xr2:uid="{E97F94AB-0E29-4667-A63F-07F1210A2021}"/>
+    <workbookView xWindow="18765" yWindow="1350" windowWidth="18705" windowHeight="18045" xr2:uid="{E97F94AB-0E29-4667-A63F-07F1210A2021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Counter-Strike: Global Offensive</t>
   </si>
@@ -191,6 +191,43 @@
   </si>
   <si>
     <t>"Football Manager 2021", "Terraria", "Stardew Valley", "Rocket League", "Garry's Mod", "War Thunder"</t>
+  </si>
+  <si>
+    <t>Reserved Space
+(GB)</t>
+  </si>
+  <si>
+    <t>Total Expected Space</t>
+  </si>
+  <si>
+    <t>Binning</t>
+  </si>
+  <si>
+    <t>AMI</t>
+  </si>
+  <si>
+    <t>Bin 1</t>
+  </si>
+  <si>
+    <t>Bin 2</t>
+  </si>
+  <si>
+    <t>Bin 3</t>
+  </si>
+  <si>
+    <t>Bin 4</t>
+  </si>
+  <si>
+    <t>["Counter-Strike:Global_Offensive", "Dota_2", "PLAYERUNKNOWN'S_BATTLEGROUNDS","Apex_Legends", "Grand_Theft_Auto_V", "Team_Fortress_2", "Rust", "Warframe", "Dead_By_Daylight", "ARK:Survival_Evolved"]</t>
+  </si>
+  <si>
+    <t>["Tom_Clancy's_Rainbow_Six_Siege", "Destiny_2", "FINAL_FANTASY_XIV_Online", "Sid_Meier's_Civilization_VI", "Football_Manager_2021", "Terraria"]</t>
+  </si>
+  <si>
+    <t>["PAYDAY_2", "Total_War:_WARHAMMER_II", "Stardew_Valley", "Unturned", "Rocket_League", "Garry's_Mod", "War_Thunder", "Black_Desert", "VRChat", "Hearts_of_Iron_IV"]</t>
+  </si>
+  <si>
+    <t>["Monster_Hunter_Stories_2:_Wings_of_Ruin", "Left_4_Dead_2", "Don't_Starve_Together", "Monster_Hunter:_World"]</t>
   </si>
 </sst>
 </file>
@@ -581,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EEEA4-A1F4-4E68-A5EE-31128964F733}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,9 +630,15 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>32</v>
       </c>
@@ -608,8 +651,17 @@
       <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -626,8 +678,19 @@
       <c r="E2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <f>SUM(E2:F2)</f>
+        <v>25</v>
+      </c>
+      <c r="I2">
+        <f>SUM(G2:G10)</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -644,8 +707,19 @@
       <c r="E3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G31" si="0">SUM(E3:F3)</f>
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <f>SUM(G11:G17)</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -656,14 +730,25 @@
         <v>183353</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D31" si="0">C4/$C$33</f>
+        <f t="shared" ref="D4:D31" si="1">C4/$C$33</f>
         <v>9.8839390639655855E-2</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I4">
+        <f>SUM(G18:G27)</f>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -674,14 +759,25 @@
         <v>122892</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6246913846452413E-2</v>
       </c>
       <c r="E5">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="I5">
+        <f>SUM(G28:G31)</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -692,14 +788,21 @@
         <v>92447</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9835045766713743E-2</v>
       </c>
       <c r="E6">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -710,14 +813,21 @@
         <v>72341</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8996582320787468E-2</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -728,14 +838,21 @@
         <v>70773</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8151326641725873E-2</v>
       </c>
       <c r="E8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -746,14 +863,21 @@
         <v>56371</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0387696354834882E-2</v>
       </c>
       <c r="E9">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -764,14 +888,21 @@
         <v>45615</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4589501148210839E-2</v>
       </c>
       <c r="E10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -782,14 +913,21 @@
         <v>43722</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.356904897954783E-2</v>
       </c>
       <c r="E11">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -800,14 +938,21 @@
         <v>42475</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2896833525600249E-2</v>
       </c>
       <c r="E12">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -818,14 +963,21 @@
         <v>41539</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2392267635548177E-2</v>
       </c>
       <c r="E13">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -836,14 +988,21 @@
         <v>34756</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8735782131036192E-2</v>
       </c>
       <c r="E14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -854,14 +1013,21 @@
         <v>30873</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6642588379890678E-2</v>
       </c>
       <c r="E15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -872,14 +1038,21 @@
         <v>28214</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5209211561890182E-2</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -890,14 +1063,21 @@
         <v>27359</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4748310027707998E-2</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -908,14 +1088,21 @@
         <v>25458</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3723545330070187E-2</v>
       </c>
       <c r="E18">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -926,14 +1113,21 @@
         <v>24722</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3326792664388213E-2</v>
       </c>
       <c r="E19">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -944,14 +1138,21 @@
         <v>24711</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3320862937047859E-2</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -962,14 +1163,21 @@
         <v>24159</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3023298437786379E-2</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -980,14 +1188,21 @@
         <v>20610</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1110152771338932E-2</v>
       </c>
       <c r="E22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -998,14 +1213,21 @@
         <v>19342</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.042661692883249E-2</v>
       </c>
       <c r="E23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1016,14 +1238,21 @@
         <v>18374</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9048009228812003E-3</v>
       </c>
       <c r="E24">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1034,14 +1263,21 @@
         <v>18341</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8870117408601348E-3</v>
       </c>
       <c r="E25">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1052,14 +1288,21 @@
         <v>17970</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6870182096535969E-3</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1070,14 +1313,21 @@
         <v>17272</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3107500566019432E-3</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1088,14 +1338,21 @@
         <v>17208</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2762498248035105E-3</v>
       </c>
       <c r="E28">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1106,14 +1363,21 @@
         <v>16873</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0956626739835903E-3</v>
       </c>
       <c r="E29">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1124,14 +1388,21 @@
         <v>16680</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.9916229124664439E-3</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1142,14 +1413,21 @@
         <v>16505</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8972863411426045E-3</v>
       </c>
       <c r="E31">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
@@ -1158,7 +1436,7 @@
         <v>1855060</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>36</v>
       </c>
@@ -1171,8 +1449,20 @@
       <c r="E36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="142.5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -1187,8 +1477,21 @@
         <f>SUM(E2,E3,E5,E4,E12)</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="38" spans="2:5" ht="72" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="7">
+        <f>SUM(D2:D10)</f>
+        <v>0.7158242860069215</v>
+      </c>
+      <c r="M37">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="86.25" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>39</v>
       </c>
@@ -1203,8 +1506,21 @@
         <f>SUM(E14,E13,E25,E26)</f>
         <v>205</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="7">
+        <f>SUM(D11:D17)</f>
+        <v>0.13419404224122131</v>
+      </c>
+      <c r="M38">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="85.5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -1219,8 +1535,21 @@
         <f>SUM(E11,E21,E30)</f>
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="2:5" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="7">
+        <f>SUM(D18:D27)</f>
+        <v>0.11372084999946094</v>
+      </c>
+      <c r="M39">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>41</v>
       </c>
@@ -1235,8 +1564,21 @@
         <f>SUM(E6,E8,E9,E10)</f>
         <v>177</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="7">
+        <f>SUM(D28:D31)</f>
+        <v>3.6260821752396144E-2</v>
+      </c>
+      <c r="M40">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="57" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>42</v>
       </c>
@@ -1251,8 +1593,14 @@
         <f>SUM(E7,E18,E29)</f>
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" ht="114" x14ac:dyDescent="0.25">
+      <c r="K41" s="9"/>
+      <c r="L41" s="7">
+        <f>SUM(L37:L40)</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="2:13" ht="114" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>43</v>
       </c>
@@ -1267,8 +1615,11 @@
         <f>SUM(E15,E27,E28,E31)</f>
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="K42" s="9"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="2:13" ht="99.75" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>44</v>
       </c>
@@ -1283,8 +1634,11 @@
         <f>SUM(E16,E17,E20,E22,E23,E24)</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="K43" s="9"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C44" s="4"/>
     </row>
   </sheetData>

--- a/steamchart_manual numbers.xlsx
+++ b/steamchart_manual numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhear\Desktop\intern\CostSimulation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilove\Documents\GitHub\CostSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52244B40-E8B4-48A1-AAF1-5A3B42774277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D55F66D-2360-4F0F-823B-85C20421A2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18765" yWindow="1350" windowWidth="18705" windowHeight="18045" xr2:uid="{E97F94AB-0E29-4667-A63F-07F1210A2021}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E97F94AB-0E29-4667-A63F-07F1210A2021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Counter-Strike: Global Offensive</t>
   </si>
@@ -228,13 +228,28 @@
   </si>
   <si>
     <t>["Monster_Hunter_Stories_2:_Wings_of_Ruin", "Left_4_Dead_2", "Don't_Starve_Together", "Monster_Hunter:_World"]</t>
+  </si>
+  <si>
+    <t>Bin 5</t>
+  </si>
+  <si>
+    <t>Bin 6</t>
+  </si>
+  <si>
+    <t>Bin 7</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>PAYDAY 2, Total War: WARHAMMER II, Stardew Valley, Unturned, Rocket League,Garry's Mod, War Thunder, Black Desert,VRChat, Hearts of Iron IV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +273,12 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -618,27 +639,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81EEEA4-A1F4-4E68-A5EE-31128964F733}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.21875" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>32</v>
       </c>
@@ -660,8 +681,11 @@
       <c r="I1" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -686,11 +710,15 @@
         <v>25</v>
       </c>
       <c r="I2">
-        <f>SUM(G2:G10)</f>
+        <f>SUM($G$2:$G$5)</f>
+        <v>206</v>
+      </c>
+      <c r="J2">
+        <f>SUM($G$2:$G$10)</f>
         <v>498</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -715,11 +743,15 @@
         <v>25</v>
       </c>
       <c r="I3">
-        <f>SUM(G11:G17)</f>
+        <f>SUM($G$6:$G$9)</f>
+        <v>222</v>
+      </c>
+      <c r="J3">
+        <f>SUM($G$11:$G$17)</f>
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -744,11 +776,15 @@
         <v>70</v>
       </c>
       <c r="I4">
-        <f>SUM(G18:G27)</f>
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM($G$10:$G$12)</f>
+        <v>251</v>
+      </c>
+      <c r="J4">
+        <f>SUM($G$18:$G$28)</f>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -773,11 +809,15 @@
         <v>86</v>
       </c>
       <c r="I5">
-        <f>SUM(G28:G31)</f>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM($G$13:$G$15)</f>
+        <v>247</v>
+      </c>
+      <c r="J5">
+        <f>SUM($G$29:$G$31)</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -801,8 +841,12 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>SUM($G$16:$G$19)</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -826,8 +870,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f>SUM($G$20:$G$26)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -851,8 +899,12 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f>SUM($G$27:$G$31)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -877,7 +929,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -902,7 +954,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -927,7 +979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -952,7 +1004,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -977,7 +1029,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1002,7 +1054,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1027,7 +1079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1052,7 +1104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1077,7 +1129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1102,7 +1154,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1127,7 +1179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1152,7 +1204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1177,7 +1229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1202,7 +1254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1227,7 +1279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1252,7 +1304,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1277,7 +1329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1288,7 +1340,7 @@
         <v>17970</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="1"/>
+        <f>C26/$C$33</f>
         <v>9.6870182096535969E-3</v>
       </c>
       <c r="E26">
@@ -1302,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1327,7 +1379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1352,7 +1404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1377,7 +1429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1402,7 +1454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1427,7 +1479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>29</v>
       </c>
@@ -1435,8 +1487,12 @@
         <f>SUM(C2:C31)</f>
         <v>1855060</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f>SUM(G2:G31)</f>
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>36</v>
       </c>
@@ -1462,7 +1518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" ht="69" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>38</v>
       </c>
@@ -1491,7 +1547,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>39</v>
       </c>
@@ -1520,7 +1576,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="2:13" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -1549,7 +1605,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>41</v>
       </c>
@@ -1578,7 +1634,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="57" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>42</v>
       </c>
@@ -1600,7 +1656,7 @@
       </c>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="2:13" ht="114" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>43</v>
       </c>
@@ -1619,7 +1675,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="2:13" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>44</v>
       </c>
@@ -1634,14 +1690,137 @@
         <f>SUM(E16,E17,E20,E22,E23,E24)</f>
         <v>75</v>
       </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$B$2:$B$5)</f>
+        <v>Counter-Strike: Global Offensive,Dota 2,PLAYERUNKNOWN'S BATTLEGROUNDS,Apex Legends</v>
+      </c>
+      <c r="L43" s="7">
+        <f>SUM($D$2:$D$5)</f>
+        <v>0.53386413377464881</v>
+      </c>
+      <c r="M43">
+        <f>SUM($G$2:$G$5)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="4"/>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$B$6:$B$9)</f>
+        <v>Grand Theft Auto V,Team Fortress 2,Rust,Warframe</v>
+      </c>
+      <c r="L44" s="7">
+        <f>SUM($D$6:$D$9)</f>
+        <v>0.15737065108406195</v>
+      </c>
+      <c r="M44">
+        <f>SUM($G$6:$G$9)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J45" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$B$10:$B$12)</f>
+        <v>Dead by Daylight,ARK: Survival Evolved,Tom Clancy's Rainbow Six Siege</v>
+      </c>
+      <c r="L45" s="7">
+        <f>SUM($D$10:$D$12)</f>
+        <v>7.1055383653358922E-2</v>
+      </c>
+      <c r="M45">
+        <f>SUM($G$10:$G$12)</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J46" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46" s="7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$B$13:$B$15)</f>
+        <v xml:space="preserve">	Destiny 2,FINAL FANTASY XIV Online,Sid Meier's Civilization VI</v>
+      </c>
+      <c r="L46" s="7">
+        <f>SUM($D$13:$D$15)</f>
+        <v>5.777063814647504E-2</v>
+      </c>
+      <c r="M46">
+        <f>SUM($G$13:$G$15)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J47" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" s="7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$B$16:$B19)</f>
+        <v>Football Manager 2021,Terraria,PAYDAY 2,Total War: WARHAMMER II</v>
+      </c>
+      <c r="L47" s="7">
+        <f>SUM($D$16:$D$19)</f>
+        <v>5.7007859584056582E-2</v>
+      </c>
+      <c r="M47">
+        <f>SUM($G$16:$G$19)</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J48" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$B$20:$B$26)</f>
+        <v>Stardew Valley,Unturned,Rocket League,Garry's Mod,War Thunder,Black Desert,VRChat</v>
+      </c>
+      <c r="L48" s="7">
+        <f>SUM($D$20:$D$26)</f>
+        <v>7.7359761948400593E-2</v>
+      </c>
+      <c r="M48">
+        <f>SUM($G$20:$G$26)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J49" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="7" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,$B$27:$B$31)</f>
+        <v>Hearts of Iron IV,Monster Hunter Stories 2: Wings of Ruin,Left 4 Dead 2,Don't Starve Together,Monster Hunter: World</v>
+      </c>
+      <c r="L49" s="7">
+        <f>SUM($D$27:$D$31)</f>
+        <v>4.5571571808998096E-2</v>
+      </c>
+      <c r="M49">
+        <f>SUM($G$27:$G$31)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="L55">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>